--- a/src/assets/Company_Code_Template.xlsx
+++ b/src/assets/Company_Code_Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Id</t>
   </si>
@@ -35,22 +35,16 @@
     <t>CompanyName</t>
   </si>
   <si>
-    <t>Test Company1</t>
-  </si>
-  <si>
-    <t>Test Company2</t>
-  </si>
-  <si>
-    <t>Test Company3</t>
-  </si>
-  <si>
-    <t>Test Company4</t>
-  </si>
-  <si>
-    <t>Test Company5</t>
-  </si>
-  <si>
-    <t>Test Company6</t>
+    <t>BOT/001</t>
+  </si>
+  <si>
+    <t>TGA/001/25</t>
+  </si>
+  <si>
+    <t>Brandone</t>
+  </si>
+  <si>
+    <t>Target Africa</t>
   </si>
 </sst>
 </file>
@@ -398,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,66 +420,22 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>123</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>124</v>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>125</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>126</v>
-      </c>
-      <c r="C5" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>127</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>128</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
